--- a/Matlab/08-02-2016/realtime/test.xlsx
+++ b/Matlab/08-02-2016/realtime/test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\OneDrive\Documents\GitHub\FINAL-YEAR-PROJECT\Matlab\08-02-2016\realtime\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="10035"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -56,6 +61,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -104,7 +112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -139,7 +147,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,34 +366,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
         <v>9</v>
       </c>
-      <c r="B1">
-        <v>7</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>9</v>
-      </c>
-      <c r="E1">
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
       <c r="G1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Matlab/08-02-2016/realtime/test.xlsx
+++ b/Matlab/08-02-2016/realtime/test.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\OneDrive\Documents\GitHub\FINAL-YEAR-PROJECT\Matlab\08-02-2016\realtime\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="10035"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -112,7 +107,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,7 +142,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,34 +361,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1">
         <v>5</v>
       </c>
       <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
         <v>9</v>
       </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>10</v>
-      </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
